--- a/Cache/Metrics/Metrics_23.xlsx
+++ b/Cache/Metrics/Metrics_23.xlsx
@@ -509,7 +509,7 @@
         <v>700</v>
       </c>
       <c r="C2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -524,7 +524,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="J2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" t="b">
         <v>1</v>
@@ -541,11 +541,11 @@
         <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>75.56</v>
+        <v>52.41</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Fri Jun 14 11:00:08 2024</t>
+          <t>Wed Jun 19 14:31:00 2024</t>
         </is>
       </c>
     </row>
@@ -685,13 +685,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.3367207792207793</v>
+        <v>0.8353043204036581</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4369369369369369</v>
+        <v>0.917098445595855</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3653891162922182</v>
+        <v>0.912825539768545</v>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
@@ -703,7 +703,7 @@
         <v>700</v>
       </c>
       <c r="M2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2" t="b">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="T2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U2" t="b">
         <v>1</v>
@@ -745,43 +745,43 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.3978210678210677</v>
+        <v>0.8707896892107418</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4485888575362259</v>
+        <v>0.9100619240604044</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3960372408731888</v>
+        <v>0.9057090145159999</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01498576612750356</v>
+        <v>0.01743733326922257</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0225320409547806</v>
+        <v>0.01036577938414021</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0206859585576751</v>
+        <v>0.01049187884801028</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>EDA_time_Median</t>
+          <t>ECG_HRV_Heart_rate</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>EDA_time_Range</t>
+          <t>ECG_HRV_MeanNN</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>EDA_time_Entropy</t>
+          <t>ECG_HRV_SDNN</t>
         </is>
       </c>
       <c r="L3" t="n">
         <v>700</v>
       </c>
       <c r="M3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" t="b">
         <v>0</v>
@@ -796,7 +796,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
@@ -804,7 +804,7 @@
         </is>
       </c>
       <c r="T3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3" t="b">
         <v>1</v>
@@ -823,22 +823,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.3833308358308358</v>
+        <v>0.8190698593330172</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4659795889620451</v>
+        <v>0.9121719013846674</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3951689354014352</v>
+        <v>0.8907039282692801</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01087874768098295</v>
+        <v>0.03677042098748195</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01049126422489163</v>
+        <v>0.007529704844013934</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01090708265057397</v>
+        <v>0.01420953813445252</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>700</v>
       </c>
       <c r="M4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" t="b">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -870,7 +870,7 @@
         </is>
       </c>
       <c r="T4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4" t="b">
         <v>1</v>
@@ -889,43 +889,43 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.3747591297591297</v>
+        <v>0.8499047372731583</v>
       </c>
       <c r="D5" t="n">
-        <v>0.460241006556796</v>
+        <v>0.8905784966468857</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3799923957194553</v>
+        <v>0.8846519117252202</v>
       </c>
       <c r="F5" t="n">
-        <v>0.006986475169358951</v>
+        <v>0.02157561423774713</v>
       </c>
       <c r="G5" t="n">
-        <v>0.00924641309216641</v>
+        <v>0.01342400875308507</v>
       </c>
       <c r="H5" t="n">
-        <v>0.005927930761800842</v>
+        <v>0.01450206678408053</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>EDA_time_Median</t>
+          <t>ECG_HRV_Heart_rate</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>EDA_time_Range</t>
+          <t>ECG_HRV_MeanNN</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>EDA_time_Entropy</t>
+          <t>ECG_HRV_SDNN</t>
         </is>
       </c>
       <c r="L5" t="n">
         <v>700</v>
       </c>
       <c r="M5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" t="b">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         </is>
       </c>
       <c r="T5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5" t="b">
         <v>1</v>
@@ -967,43 +967,43 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.4096167721167722</v>
+        <v>0.8130659367501473</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5257973800079062</v>
+        <v>0.8359146041395282</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4034325420870735</v>
+        <v>0.8301735299058511</v>
       </c>
       <c r="F6" t="n">
-        <v>0.004854989764247173</v>
+        <v>0.02365801696619495</v>
       </c>
       <c r="G6" t="n">
-        <v>0.003332657304764244</v>
+        <v>0.009211042170367386</v>
       </c>
       <c r="H6" t="n">
-        <v>0.003254083971647351</v>
+        <v>0.01044780142229274</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>EDA_time_Median</t>
+          <t>ECG_HRV_Heart_rate</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>EDA_time_Range</t>
+          <t>ECG_HRV_MeanNN</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>EDA_time_Entropy</t>
+          <t>ECG_HRV_SDNN</t>
         </is>
       </c>
       <c r="L6" t="n">
         <v>700</v>
       </c>
       <c r="M6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" t="b">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="T6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6" t="b">
         <v>1</v>
@@ -1045,22 +1045,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.3859593184593184</v>
+        <v>0.8701599206862365</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5015204678362574</v>
+        <v>0.9285220244126019</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3763787323631669</v>
+        <v>0.920203527569745</v>
       </c>
       <c r="F7" t="n">
-        <v>0.007844389896342114</v>
+        <v>0.02228748228353611</v>
       </c>
       <c r="G7" t="n">
-        <v>0.005022968971315471</v>
+        <v>0.005153893653264739</v>
       </c>
       <c r="H7" t="n">
-        <v>0.006110596798354901</v>
+        <v>0.006692062048622182</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -1069,7 +1069,7 @@
         <v>700</v>
       </c>
       <c r="M7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" t="b">
         <v>0</v>
@@ -1084,7 +1084,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="T7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7" t="b">
         <v>1</v>
@@ -1111,43 +1111,43 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.395935175935176</v>
+        <v>0.8513638518901677</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5038546963108367</v>
+        <v>0.9215764461813093</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4156409126437227</v>
+        <v>0.9051419966228483</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00834806196981938</v>
+        <v>0.03342714977467746</v>
       </c>
       <c r="G8" t="n">
-        <v>0.005704163363757259</v>
+        <v>0.007364453951721943</v>
       </c>
       <c r="H8" t="n">
-        <v>0.007460682897126949</v>
+        <v>0.01257194027907052</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>EDA_time_Median</t>
+          <t>ECG_HRV_Heart_rate</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>EDA_time_Range</t>
+          <t>ECG_HRV_MeanNN</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>EDA_time_Entropy</t>
+          <t>ECG_HRV_SDNN</t>
         </is>
       </c>
       <c r="L8" t="n">
         <v>700</v>
       </c>
       <c r="M8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" t="b">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -1170,7 +1170,7 @@
         </is>
       </c>
       <c r="T8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8" t="b">
         <v>1</v>
@@ -1189,43 +1189,43 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.4030319680319681</v>
+        <v>0.8479142060721009</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4832588139605684</v>
+        <v>0.8281187581415546</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4145767583296021</v>
+        <v>0.8378921687025953</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00836079723870683</v>
+        <v>0.01178463488161309</v>
       </c>
       <c r="G9" t="n">
-        <v>0.007906209602969724</v>
+        <v>0.01971736761067656</v>
       </c>
       <c r="H9" t="n">
-        <v>0.01026460623011679</v>
+        <v>0.01664384053476744</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>EDA_time_Median</t>
+          <t>ECG_HRV_Heart_rate</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>EDA_time_Range</t>
+          <t>ECG_HRV_MeanNN</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>EDA_time_Entropy</t>
+          <t>ECG_HRV_SDNN</t>
         </is>
       </c>
       <c r="L9" t="n">
         <v>700</v>
       </c>
       <c r="M9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" t="b">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
@@ -1248,7 +1248,7 @@
         </is>
       </c>
       <c r="T9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U9" t="b">
         <v>1</v>
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.3929220382791812</v>
+        <v>0.8460383144593671</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4841772587386622</v>
+        <v>0.8895634507095646</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3973182167739492</v>
+        <v>0.8820680110445057</v>
       </c>
       <c r="F10" t="n">
-        <v>0.008894175406708707</v>
+        <v>0.02384866462863904</v>
       </c>
       <c r="G10" t="n">
-        <v>0.009176531073520762</v>
+        <v>0.01039517862389569</v>
       </c>
       <c r="H10" t="n">
-        <v>0.009230134552470843</v>
+        <v>0.0122227325787566</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -1291,7 +1291,7 @@
         <v>700</v>
       </c>
       <c r="M10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" t="b">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         </is>
       </c>
       <c r="T10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U10" t="b">
         <v>1</v>
